--- a/src/test/resources/TestData/Labsquire_microgen_staging.xlsx
+++ b/src/test/resources/TestData/Labsquire_microgen_staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769655DB-EE80-4FB4-85D1-B6958A29BD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6ECE8-E454-4D0A-808D-042EB14799CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D5136C-B68E-490F-8657-B06070958366}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3:P21"/>
     </sheetView>
   </sheetViews>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945595E0-E04D-4B4F-B3CE-C5D38816E13A}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/Labsquire_microgen_staging.xlsx
+++ b/src/test/resources/TestData/Labsquire_microgen_staging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC6ECE8-E454-4D0A-808D-042EB14799CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C635C550-8821-463A-B18D-7BE734FDA9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A47383-B4B7-4317-B82F-C5383DC7B664}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="160">
   <si>
     <t>USERNAME_STG</t>
   </si>
@@ -447,13 +447,88 @@
   </si>
   <si>
     <t>Dr Venkatesh</t>
+  </si>
+  <si>
+    <t>N30.92</t>
+  </si>
+  <si>
+    <t>N30.93</t>
+  </si>
+  <si>
+    <t>N30.94</t>
+  </si>
+  <si>
+    <t>N30.95</t>
+  </si>
+  <si>
+    <t>N30.96</t>
+  </si>
+  <si>
+    <t>N30.97</t>
+  </si>
+  <si>
+    <t>N30.98</t>
+  </si>
+  <si>
+    <t>N30.99</t>
+  </si>
+  <si>
+    <t>N30.100</t>
+  </si>
+  <si>
+    <t>N30.101</t>
+  </si>
+  <si>
+    <t>N30.102</t>
+  </si>
+  <si>
+    <t>N30.103</t>
+  </si>
+  <si>
+    <t>N30.104</t>
+  </si>
+  <si>
+    <t>N30.105</t>
+  </si>
+  <si>
+    <t>N30.106</t>
+  </si>
+  <si>
+    <t>N30.107</t>
+  </si>
+  <si>
+    <t>N30.108</t>
+  </si>
+  <si>
+    <t>N30.109</t>
+  </si>
+  <si>
+    <t>N30.110</t>
+  </si>
+  <si>
+    <t>N30.111</t>
+  </si>
+  <si>
+    <t>N30.112</t>
+  </si>
+  <si>
+    <t>N30.113</t>
+  </si>
+  <si>
+    <t>N30.114</t>
+  </si>
+  <si>
+    <t>N30.115</t>
+  </si>
+  <si>
+    <t>N30.116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +565,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2166,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733F0AE0-1BD9-445E-9C64-B80CA439E152}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2436,1778 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123457</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4">
+        <v>12346</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1234568</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="4">
+        <v>123458</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4">
+        <v>12347</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1234569</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="4">
+        <v>123459</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="4">
+        <v>12348</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1234570</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="4">
+        <v>123460</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4">
+        <v>12349</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1234571</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="4">
+        <v>123461</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="4">
+        <v>12350</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1234572</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4">
+        <v>123462</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4">
+        <v>12351</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1234573</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="4">
+        <v>123463</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="4">
+        <v>12352</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1234574</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="4">
+        <v>123464</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4">
+        <v>12353</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1234575</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="4">
+        <v>123465</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4">
+        <v>12354</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1234576</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="4">
+        <v>123466</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4">
+        <v>12355</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1234577</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="4">
+        <v>123467</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4">
+        <v>12356</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1234578</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="4">
+        <v>123468</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4">
+        <v>12357</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1234579</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="4">
+        <v>123469</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="4">
+        <v>12358</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1234580</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="4">
+        <v>123470</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4">
+        <v>12359</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1234581</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="4">
+        <v>123471</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="4">
+        <v>12360</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1234582</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="4">
+        <v>123472</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4">
+        <v>12361</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1234583</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="4">
+        <v>123473</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12362</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1234584</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="4">
+        <v>123474</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="4">
+        <v>12363</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1234585</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="4">
+        <v>123475</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="4">
+        <v>12364</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1234586</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="4">
+        <v>123476</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="4">
+        <v>12365</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1234587</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="4">
+        <v>123477</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="4">
+        <v>12366</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1234588</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="4">
+        <v>123478</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="4">
+        <v>12367</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="4">
+        <v>1234589</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="4">
+        <v>123479</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12368</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="4">
+        <v>1234590</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4">
+        <v>123480</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="4">
+        <v>12369</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1234591</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="4">
+        <v>123481</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1996</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="4">
+        <v>12370</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1234592</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2364,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945595E0-E04D-4B4F-B3CE-C5D38816E13A}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
